--- a/eg2_adavanced.xlsx
+++ b/eg2_adavanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E52762D-8166-0849-A09C-E5D64F790BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6139286-FCA4-9C44-947D-5D7AF1C8EDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3836,8 +3836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eg2_adavanced.xlsx
+++ b/eg2_adavanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6139286-FCA4-9C44-947D-5D7AF1C8EDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B2B62B-75B3-3049-AE67-DFA09D8D12CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -3836,7 +3836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -15829,7 +15829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>

--- a/eg2_adavanced.xlsx
+++ b/eg2_adavanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B2B62B-75B3-3049-AE67-DFA09D8D12CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD9D45-4E6F-9E4D-B263-649287C78BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -3837,7 +3837,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9601,7 +9601,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G9"/>
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
